--- a/Generate_Linear_Model_for_People_Vaccinated_over_Time_in_US/Number_of_People_Vaccinated_over_Time_in_the_United_States--with_Days_Predictions_Graph_and_Notes.xlsx
+++ b/Generate_Linear_Model_for_People_Vaccinated_over_Time_in_US/Number_of_People_Vaccinated_over_Time_in_the_United_States--with_Days_Predictions_Graph_and_Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\Math_Utilities\Generate_Linear_Model_for_People_Vaccinated_over_Time_in_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783882A3-A7AB-488F-AE78-9C6CE257E843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5E027-E5D2-4E92-ACAF-EC08E9FA6D82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19290" yWindow="50" windowWidth="19050" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="40" windowWidth="19050" windowHeight="20740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Number_of_Peo" sheetId="1" r:id="rId1"/>
@@ -91,13 +91,7 @@
     <t>inv(A^T * A) * A^T</t>
   </si>
   <si>
-    <t>(m=102)x(n=1) matrix of actual values</t>
-  </si>
-  <si>
     <t>(n=1)x(m=102) Moore-Penrose Pseudoinverse</t>
-  </si>
-  <si>
-    <t>(n=1)x(n=1) matrix of independent-variable coefficients</t>
   </si>
   <si>
     <r>
@@ -221,10 +215,16 @@
     <t>day</t>
   </si>
   <si>
-    <t>(n=1)x(p=1) matrix of independent variables</t>
+    <t>(n=1)x1 matrix of independent-variable coefficients</t>
   </si>
   <si>
-    <t>(n=1)x(p=1) matrix of dependent-variable elements</t>
+    <t>(n=1)x1 matrix of independent variables</t>
+  </si>
+  <si>
+    <t>1x1 matrix of dependent-variable elements</t>
+  </si>
+  <si>
+    <t>(m=102)x1 matrix of actual values</t>
   </si>
 </sst>
 </file>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3880,13 +3880,13 @@
         <v>20944683.950756099</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J30" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -3906,13 +3906,13 @@
         <v>21692708.3775688</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -3932,7 +3932,7 @@
         <v>22440732.804381501</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>17</v>
@@ -4047,10 +4047,10 @@
         <v>26180854.938445099</v>
       </c>
       <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
         <v>24</v>
-      </c>
-      <c r="I37" t="s">
-        <v>26</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
@@ -4073,7 +4073,7 @@
         <v>26928879.3652578</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>10</v>
@@ -4099,13 +4099,13 @@
         <v>27676903.792070601</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -4142,10 +4142,10 @@
         <v>29172952.645695999</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -4165,7 +4165,7 @@
         <v>29920977.0725087</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -4185,7 +4185,7 @@
         <v>30669001.499321401</v>
       </c>
       <c r="H43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
